--- a/Rumus Bab4.xlsx
+++ b/Rumus Bab4.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iryshviella Einzbern\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD49740-1ABB-4200-A00B-EFB5415831AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1486B7E6-DF12-4954-8091-3598BC3909EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15720" yWindow="3555" windowWidth="15390" windowHeight="12735" xr2:uid="{B5776C20-0041-4681-ADCE-91F36B5760EE}"/>
+    <workbookView xWindow="-15540" yWindow="3945" windowWidth="15390" windowHeight="12735" activeTab="1" xr2:uid="{B5776C20-0041-4681-ADCE-91F36B5760EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar1" sheetId="1" r:id="rId1"/>
+    <sheet name="Lembar2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Jumlah Data</t>
   </si>
@@ -63,6 +64,12 @@
   </si>
   <si>
     <t>FP</t>
+  </si>
+  <si>
+    <t>JD</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -113,12 +120,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A59626F7-5050-4444-9B92-F5F80941E212}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,6 +456,8 @@
     <col min="3" max="3" width="7.85546875" customWidth="1"/>
     <col min="4" max="4" width="6.42578125" customWidth="1"/>
     <col min="5" max="5" width="7.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -564,15 +576,15 @@
         <v>0.99242424242424243</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G5" si="0">D4/SUM(D4:E4)</f>
+        <f>D4/SUM(D4:E4)</f>
         <v>0.98360655737704916</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" ref="H4:H5" si="1">D4/SUM(C4:D4)</f>
+        <f>D4/SUM(C4:D4)</f>
         <v>0.967741935483871</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" ref="I4:I5" si="2">2*(G4*H4)/(G4+H4)</f>
+        <f>2*(G4*H4)/(G4+H4)</f>
         <v>0.97560975609756095</v>
       </c>
     </row>
@@ -597,17 +609,260 @@
         <v>0.99537037037037035</v>
       </c>
       <c r="G5" s="2">
+        <f>D5/SUM(D5:E5)</f>
+        <v>0.99310344827586206</v>
+      </c>
+      <c r="H5" s="2">
+        <f>D5/SUM(C5:D5)</f>
+        <v>0.98630136986301364</v>
+      </c>
+      <c r="I5" s="2">
+        <f>2*(G5*H5)/(G5+H5)</f>
+        <v>0.98969072164948446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>411</v>
+      </c>
+      <c r="B6" s="3">
+        <v>206</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>202</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2">
+        <f xml:space="preserve"> SUM(B6:D6) / SUM(B6:D6:C6:E6)</f>
+        <v>0.99273607748184023</v>
+      </c>
+      <c r="G6" s="3">
+        <f>D6/SUM(D6:E6)</f>
+        <v>0.98536585365853657</v>
+      </c>
+      <c r="H6" s="3">
+        <f>D6/SUM(C6:D6)</f>
+        <v>0.99019607843137258</v>
+      </c>
+      <c r="I6" s="3">
+        <f>2*(G6*H6)/(G6+H6)</f>
+        <v>0.98777506112469438</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB24D511-792F-45FE-8DD3-08B21C370B0E}">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2">
+        <f>C2 + D2 + E2 + F2</f>
+        <v>100</v>
+      </c>
+      <c r="C2" s="2">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2">
+        <v>34</v>
+      </c>
+      <c r="G2" s="2">
+        <f xml:space="preserve"> SUM(C2:E2) / SUM(C2:E2:D2:F2)</f>
+        <v>0.66</v>
+      </c>
+      <c r="H2" s="2">
+        <f>E2/SUM(E2:F2)</f>
+        <v>0.32</v>
+      </c>
+      <c r="I2" s="2">
+        <f>E2/SUM(D2:E2)</f>
+        <v>0.31372549019607843</v>
+      </c>
+      <c r="J2" s="2">
+        <f>2*(H2*I2)/(H2+I2)</f>
+        <v>0.31683168316831678</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>134</v>
+      </c>
+      <c r="B3" s="2">
+        <f t="shared" ref="B3:B5" si="0">C3 + D3 + E3 + F3</f>
+        <v>100</v>
+      </c>
+      <c r="C3" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" s="2">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2">
+        <v>38</v>
+      </c>
+      <c r="F3" s="2">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2">
+        <f xml:space="preserve"> SUM(C3:E3) / SUM(C3:E3:D3:F3)</f>
+        <v>0.88</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H5" si="1">E3/SUM(E3:F3)</f>
+        <v>0.76</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I5" si="2">E3/SUM(D3:E3)</f>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J5" si="3">2*(H3*I3)/(H3+I3)</f>
+        <v>0.77551020408163263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>215</v>
+      </c>
+      <c r="B4" s="2">
         <f t="shared" si="0"/>
-        <v>0.99310344827586206</v>
+        <v>100</v>
+      </c>
+      <c r="C4" s="2">
+        <v>32</v>
+      </c>
+      <c r="D4" s="2">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2">
+        <v>42</v>
+      </c>
+      <c r="F4" s="2">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2">
+        <f xml:space="preserve"> SUM(C4:E4) / SUM(C4:E4:D4:F4)</f>
+        <v>0.92</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="1"/>
+        <v>0.84</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="3"/>
+        <v>0.76363636363636356</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>411</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>46</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2">
+        <f xml:space="preserve"> SUM(C5:E5) / SUM(C5:E5:D5:F5)</f>
+        <v>0.96</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="1"/>
-        <v>0.98630136986301364</v>
+        <v>0.92</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="2"/>
-        <v>0.98969072164948446</v>
-      </c>
+        <v>0.90196078431372551</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="3"/>
+        <v>0.91089108910891092</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
